--- a/ゲーム制作 企画書・仕様書.xlsx
+++ b/ゲーム制作 企画書・仕様書.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\keisuke\Desktop\00Anabuki-master\00Anabuki-master\3Dプログラミング基礎\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\keisuke\Desktop\新しいフォルダー\13Nishimoto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{411CAAD3-5FF8-4B14-B4FF-E79B62360E13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D6D3C4B-7BA7-4CCC-A029-191257136A61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{964D70DB-5630-471E-9656-BF1D64E65E4B}"/>
   </bookViews>
@@ -614,8 +614,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDB00524-DEAF-41CC-B5EF-0263154EC52F}">
   <dimension ref="A1:O18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="24" customHeight="1" x14ac:dyDescent="0.4"/>

--- a/ゲーム制作 企画書・仕様書.xlsx
+++ b/ゲーム制作 企画書・仕様書.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\keisuke\Desktop\新しいフォルダー\13Nishimoto\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\keisuke\Desktop\ゲーム制作.3\13Nishimoto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D6D3C4B-7BA7-4CCC-A029-191257136A61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C93132B9-6E27-4A7B-8DA6-67517077A193}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{964D70DB-5630-471E-9656-BF1D64E65E4B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{964D70DB-5630-471E-9656-BF1D64E65E4B}"/>
   </bookViews>
   <sheets>
     <sheet name="企画書" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="44">
   <si>
     <t>企画書</t>
     <rPh sb="0" eb="3">
@@ -49,10 +49,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>3Dゲーム</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>仕様書</t>
     <rPh sb="0" eb="3">
       <t>シヨウショ</t>
@@ -98,7 +94,326 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Wキー：上に移動</t>
+    <t>衝突</t>
+    <rPh sb="0" eb="2">
+      <t>ショウトツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>障害物に当たるとダメージを受ける</t>
+    <rPh sb="0" eb="3">
+      <t>ショウガイブツ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>終了</t>
+    <rPh sb="0" eb="2">
+      <t>シュウリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>障害物に3回当たると、ゲームオーバー</t>
+    <rPh sb="0" eb="3">
+      <t>ショウガイブツ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>カイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ア</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(2)障害物</t>
+    <rPh sb="3" eb="6">
+      <t>ショウガイブツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プレイヤーに当たったら、消滅する</t>
+    <rPh sb="6" eb="7">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ショウメツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3Dゲーム</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1、プレイヤー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>乗り物</t>
+    <rPh sb="0" eb="1">
+      <t>ノ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>モノ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2、障害物</t>
+    <rPh sb="2" eb="5">
+      <t>ショウガイブツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ステージ上に設置してある四角形</t>
+  </si>
+  <si>
+    <t>3、ゲームの目標</t>
+    <rPh sb="6" eb="8">
+      <t>モクヒョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ステージのクリア。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プレイヤーが乗る乗り物に障害物が3回当たるとステージ失敗</t>
+    <rPh sb="6" eb="7">
+      <t>ノ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ノ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>モノ</t>
+    </rPh>
+    <rPh sb="12" eb="15">
+      <t>ショウガイブツ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>カイ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>シッパイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>( クリア、失敗 )</t>
+    <rPh sb="6" eb="8">
+      <t>シッパイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>面白ポイント</t>
+    <rPh sb="0" eb="2">
+      <t>オモシロ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>乗り物を操作してステージクリアを目指す</t>
+    <rPh sb="0" eb="1">
+      <t>ノ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>モノ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ソウサ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>メザ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ステージ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ステージは常に設置してある障害物を避けつつ前を進みゴールをすればステージ成功。</t>
+    <rPh sb="5" eb="6">
+      <t>ツネ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>セッチ</t>
+    </rPh>
+    <rPh sb="13" eb="16">
+      <t>ショウガイブツ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>マエ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>スス</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>セイコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>設置してある障害物に3回当たると、ステージ失敗。</t>
+    <rPh sb="0" eb="2">
+      <t>セッチ</t>
+    </rPh>
+    <rPh sb="6" eb="9">
+      <t>ショウガイブツ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>カイ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>シッパイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(3)ステージ仕様</t>
+    <rPh sb="7" eb="9">
+      <t>シヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>常に平行だが、障害物が数多く設置している</t>
+    <rPh sb="0" eb="1">
+      <t>ツネ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ヘイコウ</t>
+    </rPh>
+    <rPh sb="7" eb="10">
+      <t>ショウガイブツ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>カズオオ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>セッチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>体力ゲージ</t>
+    <rPh sb="0" eb="2">
+      <t>タイリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>体力ゲージ3個が体力確認ができる</t>
+    <rPh sb="0" eb="2">
+      <t>タイリョク</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="8" eb="12">
+      <t>タイリョクカクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タイトル画面</t>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>リザルト画面</t>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ゲーム結果の表示</t>
+    <rPh sb="3" eb="5">
+      <t>ケッカ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>動きはないが、四角形の障害物(設置数  多)</t>
+    <rPh sb="0" eb="1">
+      <t>ウゴ</t>
+    </rPh>
+    <rPh sb="7" eb="10">
+      <t>シカクケイ</t>
+    </rPh>
+    <rPh sb="11" eb="14">
+      <t>ショウガイブツ</t>
+    </rPh>
+    <rPh sb="15" eb="18">
+      <t>セッチスウ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>タ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プレイヤーが使う飛行機的な物。</t>
+    <rPh sb="8" eb="11">
+      <t>ヒコウキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>動き</t>
+    <rPh sb="0" eb="1">
+      <t>ウゴ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プレイヤー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>飛行機的な乗り物</t>
+    <rPh sb="0" eb="4">
+      <t>ヒコウキテキ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ノ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>モノ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Ｗキー：上に移動</t>
     <rPh sb="4" eb="5">
       <t>ウエ</t>
     </rPh>
@@ -118,59 +433,36 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>衝突</t>
-    <rPh sb="0" eb="2">
-      <t>ショウトツ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>障害物に当たるとダメージを受ける</t>
+    <t>飛行機のような乗り物を使って障害物を上下左右に避けながら先にあるゴールを目指すスクロールゲーム。</t>
     <rPh sb="0" eb="3">
+      <t>ヒコウキ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ノ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>モノ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="14" eb="17">
       <t>ショウガイブツ</t>
     </rPh>
-    <rPh sb="4" eb="5">
-      <t>ア</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>ウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>終了</t>
-    <rPh sb="0" eb="2">
-      <t>シュウリョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>障害物に3回当たると、ゲームオーバー</t>
-    <rPh sb="0" eb="3">
-      <t>ショウガイブツ</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>カイ</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>ア</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>(2)障害物</t>
-    <rPh sb="3" eb="6">
-      <t>ショウガイブツ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>プレイヤーに当たったら、消滅する</t>
-    <rPh sb="6" eb="7">
-      <t>ア</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>ショウメツ</t>
+    <rPh sb="18" eb="20">
+      <t>ジョウゲ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>サユウ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>サキ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>メザ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -212,7 +504,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -225,8 +517,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -234,13 +544,93 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -257,6 +647,66 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -274,6 +724,749 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>10702</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>278258</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>32107</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="吹き出し: 四角形 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1519CE27-BBFF-4C25-B47E-AA30B1F06717}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10563118" y="2408005"/>
+          <a:ext cx="1947809" cy="652838"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 47299"/>
+            <a:gd name="adj2" fmla="val 80533"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr lvl="1" algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2800"/>
+            <a:t>障害物</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2800"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>952501</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>10702</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>952501</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>53511</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="吹き出し: 四角形 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EF5CBC66-9F4C-4F29-BCA1-9F271D9EAEAD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="20173737" y="4912331"/>
+          <a:ext cx="1926404" cy="642135"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -51944"/>
+            <a:gd name="adj2" fmla="val 90833"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr lvl="1" algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2800"/>
+            <a:t>障害物</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>674242</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>160534</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>224747</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>149832</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="正方形/長方形 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6073A5BC-D699-4D9D-A431-0FC400E79D19}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16042669" y="4762500"/>
+          <a:ext cx="513707" cy="288961"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>149832</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>663540</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>246152</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="フローチャート: 処理 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A456490A-748F-4F43-8370-3559C5D5BB5C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15368427" y="4751798"/>
+          <a:ext cx="663540" cy="96320"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartProcess">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>214045</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>171235</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>877585</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>267555</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="フローチャート: 処理 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CAD6772B-1381-494C-B4B3-FEF7AF958C15}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16545674" y="4773201"/>
+          <a:ext cx="663540" cy="96320"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartProcess">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>644577</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>283610</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>690296</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>128428</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="フローチャート: 処理 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{267A05BA-2A32-42BE-BC1E-40D156425EEB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="15813792" y="4785125"/>
+          <a:ext cx="444144" cy="45719"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartProcess">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>181940</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>288962</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>227659</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>133780</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="フローチャート: 処理 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ADCC55D6-AA32-4B9F-9B37-C329214DA680}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="16314357" y="4790477"/>
+          <a:ext cx="444144" cy="45719"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartProcess">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>128427</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>214045</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>952500</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>42809</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="吹き出し: 四角形 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B2867DB9-6CD4-4233-83D2-1FC8FAAD4C11}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14533652" y="5415337"/>
+          <a:ext cx="1787275" cy="428090"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 39167"/>
+            <a:gd name="adj2" fmla="val -103454"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr lvl="0" algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800"/>
+            <a:t>プレイヤー</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800"/>
+            <a:t>(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800"/>
+            <a:t>例</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800"/>
+            <a:t>)</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>599326</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>149830</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>952500</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>246152</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="20" name="直角三角形 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7466FE31-B49E-4C45-BF43-4DDB07E870D0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000">
+          <a:off x="15004551" y="4751796"/>
+          <a:ext cx="353174" cy="96322"/>
+        </a:xfrm>
+        <a:prstGeom prst="rtTriangle">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>845477</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>160536</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>203342</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>278259</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="24" name="直角三角形 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4838EE9C-9B76-4990-862F-ED44ACDDE3E4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="17278778" y="4660830"/>
+          <a:ext cx="117723" cy="321067"/>
+        </a:xfrm>
+        <a:prstGeom prst="rtTriangle">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>699776</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>284831</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>180718</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>30887</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="26" name="フローチャート: 処理 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{80AA5A63-88C7-423A-BAD2-5B3D9FF2469A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000">
+          <a:off x="16068203" y="4587134"/>
+          <a:ext cx="444144" cy="45719"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartProcess">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -573,49 +1766,402 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A5AD66F-9CD4-4AB0-B123-8FC7B8AC89DF}">
-  <dimension ref="A1:K5"/>
+  <dimension ref="A1:V27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+    <sheetView tabSelected="1" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
+      <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="24" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="11" width="12.625" style="2"/>
+    <col min="1" max="2" width="18.625" style="2" customWidth="1"/>
+    <col min="3" max="11" width="12.625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A3" s="2" t="s">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A5" s="2" t="s">
+      <c r="B3" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" ht="24.75" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
+    </row>
+    <row r="6" spans="1:22" ht="24.75" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B6" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="K6" s="6"/>
+      <c r="L6" s="25"/>
+      <c r="M6" s="25"/>
+      <c r="N6" s="25"/>
+      <c r="O6" s="25"/>
+      <c r="P6" s="25"/>
+      <c r="Q6" s="25"/>
+      <c r="R6" s="25"/>
+      <c r="S6" s="25"/>
+      <c r="T6" s="25"/>
+      <c r="U6" s="25"/>
+      <c r="V6" s="9"/>
+    </row>
+    <row r="7" spans="1:22" ht="24.75" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="K7" s="7"/>
+      <c r="L7" s="23"/>
+      <c r="M7" s="12"/>
+      <c r="N7" s="12"/>
+      <c r="O7" s="12"/>
+      <c r="P7" s="12"/>
+      <c r="Q7" s="13"/>
+      <c r="R7" s="15"/>
+      <c r="S7" s="15"/>
+      <c r="T7" s="16"/>
+      <c r="U7" s="23"/>
+      <c r="V7" s="11"/>
+    </row>
+    <row r="8" spans="1:22" ht="24.75" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B8" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K8" s="7"/>
+      <c r="L8" s="23"/>
+      <c r="M8" s="12"/>
+      <c r="N8" s="12"/>
+      <c r="O8" s="12"/>
+      <c r="P8" s="12"/>
+      <c r="Q8" s="17"/>
+      <c r="R8" s="14"/>
+      <c r="S8" s="14"/>
+      <c r="T8" s="18"/>
+      <c r="U8" s="23"/>
+      <c r="V8" s="11"/>
+    </row>
+    <row r="9" spans="1:22" ht="24.75" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K9" s="17"/>
+      <c r="L9" s="14"/>
+      <c r="M9" s="12"/>
+      <c r="N9" s="12"/>
+      <c r="O9" s="12"/>
+      <c r="P9" s="12"/>
+      <c r="Q9" s="17"/>
+      <c r="R9" s="14"/>
+      <c r="S9" s="14"/>
+      <c r="T9" s="18"/>
+      <c r="U9" s="23"/>
+      <c r="V9" s="11"/>
+    </row>
+    <row r="10" spans="1:22" ht="24.75" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C10" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="K10" s="17"/>
+      <c r="L10" s="14"/>
+      <c r="M10" s="12"/>
+      <c r="N10" s="12"/>
+      <c r="O10" s="12"/>
+      <c r="P10" s="12"/>
+      <c r="Q10" s="17"/>
+      <c r="R10" s="14"/>
+      <c r="S10" s="14"/>
+      <c r="T10" s="18"/>
+      <c r="U10" s="23"/>
+      <c r="V10" s="11"/>
+    </row>
+    <row r="11" spans="1:22" ht="24.75" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B11" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K11" s="7"/>
+      <c r="L11" s="23"/>
+      <c r="M11" s="12"/>
+      <c r="N11" s="12"/>
+      <c r="O11" s="12"/>
+      <c r="P11" s="12"/>
+      <c r="Q11" s="17"/>
+      <c r="R11" s="14"/>
+      <c r="S11" s="14"/>
+      <c r="T11" s="18"/>
+      <c r="U11" s="23"/>
+      <c r="V11" s="11"/>
+    </row>
+    <row r="12" spans="1:22" ht="24.75" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C12" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K12" s="7"/>
+      <c r="L12" s="23"/>
+      <c r="M12" s="12"/>
+      <c r="N12" s="12"/>
+      <c r="O12" s="12"/>
+      <c r="P12" s="12"/>
+      <c r="Q12" s="17"/>
+      <c r="R12" s="14"/>
+      <c r="S12" s="14"/>
+      <c r="T12" s="18"/>
+      <c r="U12" s="23"/>
+      <c r="V12" s="11"/>
+    </row>
+    <row r="13" spans="1:22" ht="24.75" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="K13" s="7"/>
+      <c r="L13" s="23"/>
+      <c r="M13" s="12"/>
+      <c r="N13" s="12"/>
+      <c r="O13" s="12"/>
+      <c r="P13" s="12"/>
+      <c r="Q13" s="17"/>
+      <c r="R13" s="14"/>
+      <c r="S13" s="14"/>
+      <c r="T13" s="18"/>
+      <c r="U13" s="23"/>
+      <c r="V13" s="11"/>
+    </row>
+    <row r="14" spans="1:22" ht="24.75" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B14" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K14" s="7"/>
+      <c r="L14" s="23"/>
+      <c r="M14" s="12"/>
+      <c r="N14" s="12"/>
+      <c r="O14" s="12"/>
+      <c r="P14" s="12"/>
+      <c r="Q14" s="19"/>
+      <c r="R14" s="20"/>
+      <c r="S14" s="20"/>
+      <c r="T14" s="21"/>
+      <c r="U14" s="23"/>
+      <c r="V14" s="11"/>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="C15" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K15" s="7"/>
+      <c r="L15" s="23"/>
+      <c r="M15" s="14"/>
+      <c r="N15" s="14"/>
+      <c r="O15" s="14"/>
+      <c r="P15" s="14"/>
+      <c r="Q15" s="22"/>
+      <c r="R15" s="22"/>
+      <c r="S15" s="22"/>
+      <c r="T15" s="22"/>
+      <c r="U15" s="23"/>
+      <c r="V15" s="11"/>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="C16" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K16" s="7"/>
+      <c r="L16" s="23"/>
+      <c r="M16" s="14"/>
+      <c r="N16" s="14"/>
+      <c r="O16" s="14"/>
+      <c r="P16" s="14"/>
+      <c r="Q16" s="22"/>
+      <c r="R16" s="22"/>
+      <c r="S16" s="22"/>
+      <c r="T16" s="22"/>
+      <c r="U16" s="23"/>
+      <c r="V16" s="11"/>
+    </row>
+    <row r="17" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="C17" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K17" s="7"/>
+      <c r="L17" s="23"/>
+      <c r="M17" s="14"/>
+      <c r="N17" s="14"/>
+      <c r="O17" s="14"/>
+      <c r="P17" s="14"/>
+      <c r="Q17" s="22"/>
+      <c r="R17" s="22"/>
+      <c r="S17" s="22"/>
+      <c r="T17" s="22"/>
+      <c r="U17" s="14"/>
+      <c r="V17" s="18"/>
+    </row>
+    <row r="18" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="K18" s="7"/>
+      <c r="L18" s="23"/>
+      <c r="M18" s="14"/>
+      <c r="N18" s="14"/>
+      <c r="O18" s="14"/>
+      <c r="P18" s="14"/>
+      <c r="Q18" s="22"/>
+      <c r="R18" s="22"/>
+      <c r="S18" s="22"/>
+      <c r="T18" s="22"/>
+      <c r="U18" s="14"/>
+      <c r="V18" s="18"/>
+    </row>
+    <row r="19" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="K19" s="7"/>
+      <c r="L19" s="23"/>
+      <c r="M19" s="14"/>
+      <c r="N19" s="14"/>
+      <c r="O19" s="14"/>
+      <c r="P19" s="14"/>
+      <c r="Q19" s="22"/>
+      <c r="R19" s="22"/>
+      <c r="S19" s="22"/>
+      <c r="T19" s="22"/>
+      <c r="U19" s="23"/>
+      <c r="V19" s="11"/>
+    </row>
+    <row r="20" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A20" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K20" s="7"/>
+      <c r="L20" s="23"/>
+      <c r="M20" s="14"/>
+      <c r="N20" s="14"/>
+      <c r="O20" s="14"/>
+      <c r="P20" s="14"/>
+      <c r="Q20" s="22"/>
+      <c r="R20" s="22"/>
+      <c r="S20" s="22"/>
+      <c r="T20" s="22"/>
+      <c r="U20" s="23"/>
+      <c r="V20" s="11"/>
+    </row>
+    <row r="21" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="B21" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K21" s="7"/>
+      <c r="L21" s="23"/>
+      <c r="M21" s="14"/>
+      <c r="N21" s="14"/>
+      <c r="O21" s="14"/>
+      <c r="P21" s="14"/>
+      <c r="Q21" s="22"/>
+      <c r="R21" s="22"/>
+      <c r="S21" s="22"/>
+      <c r="T21" s="22"/>
+      <c r="U21" s="23"/>
+      <c r="V21" s="11"/>
+    </row>
+    <row r="22" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="K22" s="7"/>
+      <c r="L22" s="23"/>
+      <c r="M22" s="14"/>
+      <c r="N22" s="14"/>
+      <c r="O22" s="14"/>
+      <c r="P22" s="14"/>
+      <c r="Q22" s="22"/>
+      <c r="R22" s="22"/>
+      <c r="S22" s="22"/>
+      <c r="T22" s="22"/>
+      <c r="U22" s="23"/>
+      <c r="V22" s="11"/>
+    </row>
+    <row r="23" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="B23" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K23" s="7"/>
+      <c r="L23" s="23"/>
+      <c r="M23" s="23"/>
+      <c r="N23" s="23"/>
+      <c r="O23" s="23"/>
+      <c r="P23" s="23"/>
+      <c r="Q23" s="23"/>
+      <c r="R23" s="23"/>
+      <c r="S23" s="23"/>
+      <c r="T23" s="23"/>
+      <c r="U23" s="23"/>
+      <c r="V23" s="11"/>
+    </row>
+    <row r="24" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="C24" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K24" s="7"/>
+      <c r="L24" s="23"/>
+      <c r="M24" s="23"/>
+      <c r="N24" s="23"/>
+      <c r="O24" s="23"/>
+      <c r="P24" s="23"/>
+      <c r="Q24" s="23"/>
+      <c r="R24" s="23"/>
+      <c r="S24" s="23"/>
+      <c r="T24" s="23"/>
+      <c r="U24" s="23"/>
+      <c r="V24" s="11"/>
+    </row>
+    <row r="25" spans="1:22" ht="24.75" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C25" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K25" s="8"/>
+      <c r="L25" s="24"/>
+      <c r="M25" s="24"/>
+      <c r="N25" s="24"/>
+      <c r="O25" s="24"/>
+      <c r="P25" s="24"/>
+      <c r="Q25" s="24"/>
+      <c r="R25" s="24"/>
+      <c r="S25" s="24"/>
+      <c r="T25" s="24"/>
+      <c r="U25" s="24"/>
+      <c r="V25" s="10"/>
+    </row>
+    <row r="26" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="L26" s="2"/>
+      <c r="M26" s="2"/>
+      <c r="N26" s="2"/>
+      <c r="O26" s="2"/>
+      <c r="P26" s="2"/>
+      <c r="Q26" s="2"/>
+      <c r="R26" s="2"/>
+      <c r="S26" s="2"/>
+      <c r="T26" s="2"/>
+      <c r="U26" s="2"/>
+      <c r="V26" s="2"/>
+    </row>
+    <row r="27" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="L27" s="2"/>
+      <c r="M27" s="2"/>
+      <c r="N27" s="2"/>
+      <c r="O27" s="2"/>
+      <c r="P27" s="2"/>
+      <c r="Q27" s="2"/>
+      <c r="R27" s="2"/>
+      <c r="S27" s="2"/>
+      <c r="T27" s="2"/>
+      <c r="U27" s="2"/>
+      <c r="V27" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDB00524-DEAF-41CC-B5EF-0263154EC52F}">
-  <dimension ref="A1:O18"/>
+  <dimension ref="A1:O29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="R17" sqref="R17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="24" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -629,22 +2175,22 @@
   <sheetData>
     <row r="1" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="4" t="s">
-        <v>7</v>
+        <v>39</v>
       </c>
       <c r="D4" s="3">
         <v>1</v>
@@ -684,71 +2230,138 @@
       </c>
     </row>
     <row r="5" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B5" s="4"/>
       <c r="C5" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5" s="5"/>
+        <v>40</v>
+      </c>
+      <c r="G5" s="5"/>
     </row>
     <row r="6" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C6" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6" s="5"/>
+      <c r="B6" s="4" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="7" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C7" s="3" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E7" s="5"/>
     </row>
     <row r="8" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C8" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E8" s="5"/>
     </row>
     <row r="9" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B9" s="4" t="s">
-        <v>12</v>
-      </c>
+      <c r="C9" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E9" s="5"/>
     </row>
     <row r="10" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C10" s="3" t="s">
-        <v>13</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="E10" s="5"/>
     </row>
     <row r="11" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B11" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="K11" s="5"/>
+        <v>9</v>
+      </c>
     </row>
     <row r="12" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C12" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="L12" s="5"/>
+        <v>10</v>
+      </c>
     </row>
     <row r="13" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="4" t="s">
-        <v>16</v>
-      </c>
+      <c r="B13" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K13" s="5"/>
     </row>
     <row r="14" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B14" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="17" spans="2:9" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B17" s="4" t="s">
+      <c r="C14" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="18" spans="2:9" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C18" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="I18" s="5"/>
+      <c r="L14" s="5"/>
+    </row>
+    <row r="15" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A15" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B16" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C17" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="H17" s="5"/>
+    </row>
+    <row r="19" spans="1:13" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B19" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C20" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I20" s="5"/>
+    </row>
+    <row r="21" spans="1:13" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A21" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B22" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C23" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="K23" s="5"/>
+    </row>
+    <row r="24" spans="1:13" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B24" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C25" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="J25" s="5"/>
+    </row>
+    <row r="26" spans="1:13" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B26" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C27" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="M27" s="5"/>
+    </row>
+    <row r="28" spans="1:13" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B28" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C29" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="M29" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/ゲーム制作 企画書・仕様書.xlsx
+++ b/ゲーム制作 企画書・仕様書.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\keisuke\Desktop\ゲーム制作.3\13Nishimoto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C93132B9-6E27-4A7B-8DA6-67517077A193}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F090527-6C32-47EB-91C1-C030E329B430}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{964D70DB-5630-471E-9656-BF1D64E65E4B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{964D70DB-5630-471E-9656-BF1D64E65E4B}"/>
   </bookViews>
   <sheets>
     <sheet name="企画書" sheetId="1" r:id="rId1"/>
@@ -400,19 +400,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>飛行機的な乗り物</t>
-    <rPh sb="0" eb="4">
-      <t>ヒコウキテキ</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>ノ</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>モノ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Ｗキー：上に移動</t>
     <rPh sb="4" eb="5">
       <t>ウエ</t>
@@ -433,9 +420,12 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>飛行機のような乗り物を使って障害物を上下左右に避けながら先にあるゴールを目指すスクロールゲーム。</t>
-    <rPh sb="0" eb="3">
-      <t>ヒコウキ</t>
+    <t>乗り物のような乗り物を使って障害物を左右に避けながら先にあるゴールを目指すスクロールゲーム。</t>
+    <rPh sb="0" eb="1">
+      <t>ノ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>モノ</t>
     </rPh>
     <rPh sb="7" eb="8">
       <t>ノ</t>
@@ -450,19 +440,32 @@
       <t>ショウガイブツ</t>
     </rPh>
     <rPh sb="18" eb="20">
-      <t>ジョウゲ</t>
-    </rPh>
-    <rPh sb="20" eb="22">
       <t>サユウ</t>
     </rPh>
-    <rPh sb="23" eb="24">
+    <rPh sb="21" eb="22">
       <t>ヨ</t>
     </rPh>
-    <rPh sb="28" eb="29">
+    <rPh sb="26" eb="27">
       <t>サキ</t>
     </rPh>
-    <rPh sb="36" eb="38">
+    <rPh sb="34" eb="36">
       <t>メザ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>乗り物的な物</t>
+    <rPh sb="0" eb="1">
+      <t>ノ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>モノ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>モノ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -536,7 +539,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -624,13 +627,42 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -667,37 +699,10 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
@@ -707,6 +712,18 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -730,23 +747,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>10702</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>278258</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>256442</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>122116</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>32107</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>549519</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>73270</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="吹き出し: 四角形 4">
+        <xdr:cNvPr id="2" name="二等辺三角形 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1519CE27-BBFF-4C25-B47E-AA30B1F06717}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{20AEA8E7-E479-46DC-B41B-780008181299}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -754,41 +771,35 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10563118" y="2408005"/>
-          <a:ext cx="1947809" cy="652838"/>
+          <a:off x="15630769" y="5324231"/>
+          <a:ext cx="293077" cy="561731"/>
         </a:xfrm>
-        <a:prstGeom prst="wedgeRectCallout">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 47299"/>
-            <a:gd name="adj2" fmla="val 80533"/>
-          </a:avLst>
+        <a:prstGeom prst="triangle">
+          <a:avLst/>
         </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="92D050"/>
+        </a:solidFill>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
         </a:lnRef>
         <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
+          <a:schemeClr val="accent1"/>
         </a:fillRef>
         <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
+          <a:schemeClr val="accent1"/>
         </a:effectRef>
         <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
+          <a:schemeClr val="lt1"/>
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
         <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
         <a:lstStyle/>
-        <a:p>
-          <a:pPr lvl="1" algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2800"/>
-            <a:t>障害物</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2800"/>
-        </a:p>
         <a:p>
           <a:pPr algn="l"/>
           <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
@@ -799,63 +810,62 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>952501</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>10702</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>494567</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>262548</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>952501</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>53511</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>763221</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>213702</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="吹き出し: 四角形 6">
+        <xdr:cNvPr id="3" name="直角三角形 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EF5CBC66-9F4C-4F29-BCA1-9F271D9EAEAD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{80683DBD-A28E-44A2-A89B-D20578F53A67}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="20173737" y="4912331"/>
-          <a:ext cx="1926404" cy="642135"/>
+        <a:xfrm rot="4807074">
+          <a:off x="15875000" y="5763846"/>
+          <a:ext cx="256442" cy="268654"/>
         </a:xfrm>
-        <a:prstGeom prst="wedgeRectCallout">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val -51944"/>
-            <a:gd name="adj2" fmla="val 90833"/>
-          </a:avLst>
+        <a:prstGeom prst="rtTriangle">
+          <a:avLst/>
         </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="92D050"/>
+        </a:solidFill>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
         </a:lnRef>
         <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
+          <a:schemeClr val="accent1"/>
         </a:fillRef>
         <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
+          <a:schemeClr val="accent1"/>
         </a:effectRef>
         <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
+          <a:schemeClr val="lt1"/>
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
         <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr lvl="1" algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2800"/>
-            <a:t>障害物</a:t>
-          </a:r>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -864,22 +874,85 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>674242</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>160534</xdr:rowOff>
+      <xdr:colOff>42742</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>274758</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>299184</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>238124</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="直角三角形 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2C2EC114-B59D-46B3-B21B-2E6306AF91DF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="11087562">
+          <a:off x="15417069" y="5782162"/>
+          <a:ext cx="256442" cy="268654"/>
+        </a:xfrm>
+        <a:prstGeom prst="rtTriangle">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="92D050"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>12212</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>293077</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>224747</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>149832</xdr:rowOff>
+      <xdr:colOff>952500</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>268654</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="正方形/長方形 7">
+        <xdr:cNvPr id="4" name="正方形/長方形 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6073A5BC-D699-4D9D-A431-0FC400E79D19}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{757AD21A-7662-43C6-AA5C-48D738695F9E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -887,17 +960,77 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="16042669" y="4762500"/>
-          <a:ext cx="513707" cy="288961"/>
+          <a:off x="16351250" y="3663462"/>
+          <a:ext cx="940288" cy="891442"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
+          <a:srgbClr val="00B050"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
           <a:schemeClr val="accent1">
-            <a:lumMod val="60000"/>
-            <a:lumOff val="40000"/>
+            <a:shade val="50000"/>
           </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>940288</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>280865</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="23" name="正方形/長方形 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DBFC394-1111-46BD-94CF-A59C3073E443}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13444904" y="2454519"/>
+          <a:ext cx="940288" cy="891442"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B050"/>
         </a:solidFill>
       </xdr:spPr>
       <xdr:style>
@@ -931,21 +1064,21 @@
     <xdr:from>
       <xdr:col>15</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>149832</xdr:rowOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>663540</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>246152</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>48847</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>24423</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="9" name="フローチャート: 処理 8">
+        <xdr:cNvPr id="27" name="正方形/長方形 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A456490A-748F-4F43-8370-3559C5D5BB5C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{14D5326C-52C7-4C2A-94A3-AC1080741B4A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -953,17 +1086,14 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="15368427" y="4751798"/>
-          <a:ext cx="663540" cy="96320"/>
+          <a:off x="15374327" y="1843942"/>
+          <a:ext cx="1013558" cy="329712"/>
         </a:xfrm>
-        <a:prstGeom prst="flowChartProcess">
+        <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:schemeClr val="accent1">
-            <a:lumMod val="60000"/>
-            <a:lumOff val="40000"/>
-          </a:schemeClr>
+          <a:srgbClr val="00B050"/>
         </a:solidFill>
       </xdr:spPr>
       <xdr:style>
@@ -995,23 +1125,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>214045</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>171235</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>877585</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>267555</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>122116</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="11" name="フローチャート: 処理 10">
+        <xdr:cNvPr id="6" name="吹き出し: 四角形 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CAD6772B-1381-494C-B4B3-FEF7AF958C15}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{825D54D7-13E7-4953-AADE-2DD295760799}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1019,211 +1149,13 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="16545674" y="4773201"/>
-          <a:ext cx="663540" cy="96320"/>
-        </a:xfrm>
-        <a:prstGeom prst="flowChartProcess">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent1">
-            <a:lumMod val="60000"/>
-            <a:lumOff val="40000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>644577</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>283610</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>690296</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>128428</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="13" name="フローチャート: 処理 12">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{267A05BA-2A32-42BE-BC1E-40D156425EEB}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="5400000">
-          <a:off x="15813792" y="4785125"/>
-          <a:ext cx="444144" cy="45719"/>
-        </a:xfrm>
-        <a:prstGeom prst="flowChartProcess">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent1">
-            <a:lumMod val="60000"/>
-            <a:lumOff val="40000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>181940</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>288962</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>227659</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>133780</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="15" name="フローチャート: 処理 14">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ADCC55D6-AA32-4B9F-9B37-C329214DA680}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="5400000">
-          <a:off x="16314357" y="4790477"/>
-          <a:ext cx="444144" cy="45719"/>
-        </a:xfrm>
-        <a:prstGeom prst="flowChartProcess">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent1">
-            <a:lumMod val="60000"/>
-            <a:lumOff val="40000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>128427</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>214045</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>952500</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>42809</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="19" name="吹き出し: 四角形 18">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B2867DB9-6CD4-4233-83D2-1FC8FAAD4C11}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="14533652" y="5415337"/>
-          <a:ext cx="1787275" cy="428090"/>
+          <a:off x="10550769" y="2454519"/>
+          <a:ext cx="1929423" cy="732693"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRectCallout">
           <a:avLst>
-            <a:gd name="adj1" fmla="val 39167"/>
-            <a:gd name="adj2" fmla="val -103454"/>
+            <a:gd name="adj1" fmla="val 102585"/>
+            <a:gd name="adj2" fmla="val -49166"/>
           </a:avLst>
         </a:prstGeom>
       </xdr:spPr>
@@ -1245,24 +1177,11 @@
         <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr lvl="0" algn="l"/>
+          <a:pPr algn="l"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800"/>
-            <a:t>プレイヤー</a:t>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2800"/>
+            <a:t>    障害物</a:t>
           </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800"/>
-            <a:t>(</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800"/>
-            <a:t>例</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800"/>
-            <a:t>)</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -1270,57 +1189,52 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>599326</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>149830</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>952501</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>268654</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>952500</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>246152</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>952501</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>85482</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="20" name="直角三角形 19">
+        <xdr:cNvPr id="29" name="吹き出し: 四角形 28">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7466FE31-B49E-4C45-BF43-4DDB07E870D0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{61FBD550-1FC5-44F3-BE4E-2C28EDDB00F1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
-        <a:xfrm rot="10800000">
-          <a:off x="15004551" y="4751796"/>
-          <a:ext cx="353174" cy="96322"/>
+        <a:xfrm>
+          <a:off x="20185674" y="3639039"/>
+          <a:ext cx="1929423" cy="732693"/>
         </a:xfrm>
-        <a:prstGeom prst="rtTriangle">
-          <a:avLst/>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -48048"/>
+            <a:gd name="adj2" fmla="val 100834"/>
+          </a:avLst>
         </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent1">
-            <a:lumMod val="60000"/>
-            <a:lumOff val="40000"/>
-          </a:schemeClr>
-        </a:solidFill>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
+          <a:schemeClr val="dk1"/>
         </a:lnRef>
         <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
+          <a:schemeClr val="lt1"/>
         </a:fillRef>
         <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
+          <a:schemeClr val="dk1"/>
         </a:effectRef>
         <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
+          <a:schemeClr val="dk1"/>
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
@@ -1328,7 +1242,15 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2800"/>
+            <a:t>  落とし穴</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2800"/>
+            <a:t>m</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2800"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -1336,57 +1258,52 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>845477</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>160536</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>537308</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>85481</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>203342</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>278259</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>207597</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="24" name="直角三角形 23">
+        <xdr:cNvPr id="32" name="吹き出し: 四角形 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4838EE9C-9B76-4990-862F-ED44ACDDE3E4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AA0C4EB7-C778-4F11-A8CE-ED54EAA253DF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
-        <a:xfrm rot="5400000">
-          <a:off x="17278778" y="4660830"/>
-          <a:ext cx="117723" cy="321067"/>
+        <a:xfrm>
+          <a:off x="13017500" y="6814039"/>
+          <a:ext cx="2356827" cy="732693"/>
         </a:xfrm>
-        <a:prstGeom prst="rtTriangle">
-          <a:avLst/>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 67775"/>
+            <a:gd name="adj2" fmla="val -150833"/>
+          </a:avLst>
         </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent1">
-            <a:lumMod val="60000"/>
-            <a:lumOff val="40000"/>
-          </a:schemeClr>
-        </a:solidFill>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
+          <a:schemeClr val="dk1"/>
         </a:lnRef>
         <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
+          <a:schemeClr val="lt1"/>
         </a:fillRef>
         <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
+          <a:schemeClr val="dk1"/>
         </a:effectRef>
         <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
+          <a:schemeClr val="dk1"/>
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
@@ -1394,73 +1311,10 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>699776</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>284831</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>180718</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>30887</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="26" name="フローチャート: 処理 25">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{80AA5A63-88C7-423A-BAD2-5B3D9FF2469A}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="10800000">
-          <a:off x="16068203" y="4587134"/>
-          <a:ext cx="444144" cy="45719"/>
-        </a:xfrm>
-        <a:prstGeom prst="flowChartProcess">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent1">
-            <a:lumMod val="60000"/>
-            <a:lumOff val="40000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2800"/>
+            <a:t>    プレイヤー</a:t>
+          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -1768,8 +1622,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A5AD66F-9CD4-4AB0-B123-8FC7B8AC89DF}">
   <dimension ref="A1:V27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
-      <selection activeCell="J21" sqref="J21"/>
+    <sheetView zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="24" x14ac:dyDescent="0.4"/>
@@ -1797,151 +1651,151 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:22" ht="24.75" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.4">
       <c r="B6" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K6" s="6"/>
-      <c r="L6" s="25"/>
-      <c r="M6" s="25"/>
-      <c r="N6" s="25"/>
-      <c r="O6" s="25"/>
-      <c r="P6" s="25"/>
-      <c r="Q6" s="25"/>
-      <c r="R6" s="25"/>
-      <c r="S6" s="25"/>
-      <c r="T6" s="25"/>
-      <c r="U6" s="25"/>
+      <c r="L6" s="16"/>
+      <c r="M6" s="16"/>
+      <c r="N6" s="16"/>
+      <c r="O6" s="16"/>
+      <c r="P6" s="16"/>
+      <c r="Q6" s="16"/>
+      <c r="R6" s="16"/>
+      <c r="S6" s="16"/>
+      <c r="T6" s="16"/>
+      <c r="U6" s="16"/>
       <c r="V6" s="9"/>
     </row>
-    <row r="7" spans="1:22" ht="24.75" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.4">
       <c r="K7" s="7"/>
-      <c r="L7" s="23"/>
-      <c r="M7" s="12"/>
-      <c r="N7" s="12"/>
-      <c r="O7" s="12"/>
-      <c r="P7" s="12"/>
-      <c r="Q7" s="13"/>
-      <c r="R7" s="15"/>
-      <c r="S7" s="15"/>
-      <c r="T7" s="16"/>
-      <c r="U7" s="23"/>
+      <c r="L7" s="14"/>
+      <c r="M7" s="18"/>
+      <c r="N7" s="18"/>
+      <c r="O7" s="18"/>
+      <c r="P7" s="18"/>
+      <c r="Q7" s="18"/>
+      <c r="R7" s="18"/>
+      <c r="S7" s="18"/>
+      <c r="T7" s="18"/>
+      <c r="U7" s="14"/>
       <c r="V7" s="11"/>
     </row>
-    <row r="8" spans="1:22" ht="24.75" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.4">
       <c r="B8" s="2" t="s">
         <v>16</v>
       </c>
       <c r="K8" s="7"/>
-      <c r="L8" s="23"/>
-      <c r="M8" s="12"/>
-      <c r="N8" s="12"/>
-      <c r="O8" s="12"/>
-      <c r="P8" s="12"/>
-      <c r="Q8" s="17"/>
-      <c r="R8" s="14"/>
-      <c r="S8" s="14"/>
-      <c r="T8" s="18"/>
-      <c r="U8" s="23"/>
+      <c r="L8" s="14"/>
+      <c r="M8" s="18"/>
+      <c r="N8" s="18"/>
+      <c r="O8" s="18"/>
+      <c r="P8" s="18"/>
+      <c r="Q8" s="18"/>
+      <c r="R8" s="18"/>
+      <c r="S8" s="18"/>
+      <c r="T8" s="19"/>
+      <c r="U8" s="14"/>
       <c r="V8" s="11"/>
     </row>
-    <row r="9" spans="1:22" ht="24.75" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.4">
       <c r="B9" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="K9" s="17"/>
-      <c r="L9" s="14"/>
-      <c r="M9" s="12"/>
-      <c r="N9" s="12"/>
-      <c r="O9" s="12"/>
-      <c r="P9" s="12"/>
-      <c r="Q9" s="17"/>
-      <c r="R9" s="14"/>
-      <c r="S9" s="14"/>
+      <c r="K9" s="13"/>
+      <c r="L9" s="12"/>
+      <c r="M9" s="18"/>
+      <c r="N9" s="18"/>
+      <c r="O9" s="18"/>
+      <c r="P9" s="18"/>
+      <c r="Q9" s="18"/>
+      <c r="R9" s="18"/>
+      <c r="S9" s="19"/>
       <c r="T9" s="18"/>
-      <c r="U9" s="23"/>
+      <c r="U9" s="14"/>
       <c r="V9" s="11"/>
     </row>
-    <row r="10" spans="1:22" ht="24.75" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.4">
       <c r="C10" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="K10" s="17"/>
-      <c r="L10" s="14"/>
-      <c r="M10" s="12"/>
-      <c r="N10" s="12"/>
-      <c r="O10" s="12"/>
-      <c r="P10" s="12"/>
-      <c r="Q10" s="17"/>
-      <c r="R10" s="14"/>
-      <c r="S10" s="14"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="12"/>
+      <c r="M10" s="18"/>
+      <c r="N10" s="18"/>
+      <c r="O10" s="18"/>
+      <c r="P10" s="18"/>
+      <c r="Q10" s="18"/>
+      <c r="R10" s="18"/>
+      <c r="S10" s="18"/>
       <c r="T10" s="18"/>
-      <c r="U10" s="23"/>
+      <c r="U10" s="14"/>
       <c r="V10" s="11"/>
     </row>
-    <row r="11" spans="1:22" ht="24.75" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.4">
       <c r="B11" s="2" t="s">
         <v>18</v>
       </c>
       <c r="K11" s="7"/>
-      <c r="L11" s="23"/>
-      <c r="M11" s="12"/>
-      <c r="N11" s="12"/>
-      <c r="O11" s="12"/>
-      <c r="P11" s="12"/>
-      <c r="Q11" s="17"/>
-      <c r="R11" s="14"/>
-      <c r="S11" s="14"/>
+      <c r="L11" s="14"/>
+      <c r="M11" s="18"/>
+      <c r="N11" s="18"/>
+      <c r="O11" s="18"/>
+      <c r="P11" s="18"/>
+      <c r="Q11" s="18"/>
+      <c r="R11" s="18"/>
+      <c r="S11" s="18"/>
       <c r="T11" s="18"/>
-      <c r="U11" s="23"/>
+      <c r="U11" s="14"/>
       <c r="V11" s="11"/>
     </row>
-    <row r="12" spans="1:22" ht="24.75" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.4">
       <c r="C12" s="2" t="s">
         <v>19</v>
       </c>
       <c r="K12" s="7"/>
-      <c r="L12" s="23"/>
-      <c r="M12" s="12"/>
-      <c r="N12" s="12"/>
-      <c r="O12" s="12"/>
-      <c r="P12" s="12"/>
-      <c r="Q12" s="17"/>
-      <c r="R12" s="14"/>
-      <c r="S12" s="14"/>
+      <c r="L12" s="14"/>
+      <c r="M12" s="18"/>
+      <c r="N12" s="18"/>
+      <c r="O12" s="18"/>
+      <c r="P12" s="18"/>
+      <c r="Q12" s="18"/>
+      <c r="R12" s="18"/>
+      <c r="S12" s="18"/>
       <c r="T12" s="18"/>
-      <c r="U12" s="23"/>
+      <c r="U12" s="14"/>
       <c r="V12" s="11"/>
     </row>
-    <row r="13" spans="1:22" ht="24.75" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.4">
       <c r="K13" s="7"/>
-      <c r="L13" s="23"/>
-      <c r="M13" s="12"/>
-      <c r="N13" s="12"/>
-      <c r="O13" s="12"/>
-      <c r="P13" s="12"/>
-      <c r="Q13" s="17"/>
-      <c r="R13" s="14"/>
-      <c r="S13" s="14"/>
+      <c r="L13" s="14"/>
+      <c r="M13" s="18"/>
+      <c r="N13" s="18"/>
+      <c r="O13" s="18"/>
+      <c r="P13" s="18"/>
+      <c r="Q13" s="18"/>
+      <c r="R13" s="18"/>
+      <c r="S13" s="18"/>
       <c r="T13" s="18"/>
-      <c r="U13" s="23"/>
+      <c r="U13" s="14"/>
       <c r="V13" s="11"/>
     </row>
-    <row r="14" spans="1:22" ht="24.75" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.4">
       <c r="B14" s="2" t="s">
         <v>20</v>
       </c>
       <c r="K14" s="7"/>
-      <c r="L14" s="23"/>
-      <c r="M14" s="12"/>
-      <c r="N14" s="12"/>
-      <c r="O14" s="12"/>
-      <c r="P14" s="12"/>
-      <c r="Q14" s="19"/>
-      <c r="R14" s="20"/>
-      <c r="S14" s="20"/>
-      <c r="T14" s="21"/>
-      <c r="U14" s="23"/>
+      <c r="L14" s="14"/>
+      <c r="M14" s="18"/>
+      <c r="N14" s="18"/>
+      <c r="O14" s="18"/>
+      <c r="P14" s="18"/>
+      <c r="Q14" s="18"/>
+      <c r="R14" s="18"/>
+      <c r="S14" s="18"/>
+      <c r="T14" s="18"/>
+      <c r="U14" s="14"/>
       <c r="V14" s="11"/>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.4">
@@ -1949,16 +1803,16 @@
         <v>21</v>
       </c>
       <c r="K15" s="7"/>
-      <c r="L15" s="23"/>
-      <c r="M15" s="14"/>
-      <c r="N15" s="14"/>
-      <c r="O15" s="14"/>
-      <c r="P15" s="14"/>
-      <c r="Q15" s="22"/>
-      <c r="R15" s="22"/>
-      <c r="S15" s="22"/>
-      <c r="T15" s="22"/>
-      <c r="U15" s="23"/>
+      <c r="L15" s="14"/>
+      <c r="M15" s="18"/>
+      <c r="N15" s="18"/>
+      <c r="O15" s="18"/>
+      <c r="P15" s="18"/>
+      <c r="Q15" s="18"/>
+      <c r="R15" s="18"/>
+      <c r="S15" s="18"/>
+      <c r="T15" s="18"/>
+      <c r="U15" s="14"/>
       <c r="V15" s="11"/>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.4">
@@ -1966,16 +1820,16 @@
         <v>22</v>
       </c>
       <c r="K16" s="7"/>
-      <c r="L16" s="23"/>
-      <c r="M16" s="14"/>
-      <c r="N16" s="14"/>
-      <c r="O16" s="14"/>
-      <c r="P16" s="14"/>
-      <c r="Q16" s="22"/>
-      <c r="R16" s="22"/>
-      <c r="S16" s="22"/>
-      <c r="T16" s="22"/>
-      <c r="U16" s="23"/>
+      <c r="L16" s="14"/>
+      <c r="M16" s="19"/>
+      <c r="N16" s="19"/>
+      <c r="O16" s="18"/>
+      <c r="P16" s="18"/>
+      <c r="Q16" s="18"/>
+      <c r="R16" s="18"/>
+      <c r="S16" s="19"/>
+      <c r="T16" s="19"/>
+      <c r="U16" s="14"/>
       <c r="V16" s="11"/>
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.4">
@@ -1983,44 +1837,44 @@
         <v>23</v>
       </c>
       <c r="K17" s="7"/>
-      <c r="L17" s="23"/>
-      <c r="M17" s="14"/>
-      <c r="N17" s="14"/>
-      <c r="O17" s="14"/>
-      <c r="P17" s="14"/>
-      <c r="Q17" s="22"/>
-      <c r="R17" s="22"/>
-      <c r="S17" s="22"/>
-      <c r="T17" s="22"/>
+      <c r="L17" s="14"/>
+      <c r="M17" s="19"/>
+      <c r="N17" s="18"/>
+      <c r="O17" s="18"/>
+      <c r="P17" s="18"/>
+      <c r="Q17" s="18"/>
+      <c r="R17" s="18"/>
+      <c r="S17" s="20"/>
+      <c r="T17" s="19"/>
       <c r="U17" s="14"/>
-      <c r="V17" s="18"/>
+      <c r="V17" s="11"/>
     </row>
     <row r="18" spans="1:22" x14ac:dyDescent="0.4">
       <c r="K18" s="7"/>
-      <c r="L18" s="23"/>
-      <c r="M18" s="14"/>
-      <c r="N18" s="14"/>
-      <c r="O18" s="14"/>
-      <c r="P18" s="14"/>
-      <c r="Q18" s="22"/>
-      <c r="R18" s="22"/>
-      <c r="S18" s="22"/>
-      <c r="T18" s="22"/>
+      <c r="L18" s="14"/>
+      <c r="M18" s="19"/>
+      <c r="N18" s="18"/>
+      <c r="O18" s="18"/>
+      <c r="P18" s="18"/>
+      <c r="Q18" s="18"/>
+      <c r="R18" s="17"/>
+      <c r="S18" s="12"/>
+      <c r="T18" s="18"/>
       <c r="U18" s="14"/>
-      <c r="V18" s="18"/>
+      <c r="V18" s="11"/>
     </row>
     <row r="19" spans="1:22" x14ac:dyDescent="0.4">
       <c r="K19" s="7"/>
-      <c r="L19" s="23"/>
-      <c r="M19" s="14"/>
-      <c r="N19" s="14"/>
-      <c r="O19" s="14"/>
-      <c r="P19" s="14"/>
-      <c r="Q19" s="22"/>
-      <c r="R19" s="22"/>
-      <c r="S19" s="22"/>
-      <c r="T19" s="22"/>
-      <c r="U19" s="23"/>
+      <c r="L19" s="14"/>
+      <c r="M19" s="18"/>
+      <c r="N19" s="18"/>
+      <c r="O19" s="18"/>
+      <c r="P19" s="18"/>
+      <c r="Q19" s="18"/>
+      <c r="R19" s="18"/>
+      <c r="S19" s="19"/>
+      <c r="T19" s="18"/>
+      <c r="U19" s="14"/>
       <c r="V19" s="11"/>
     </row>
     <row r="20" spans="1:22" x14ac:dyDescent="0.4">
@@ -2028,16 +1882,16 @@
         <v>24</v>
       </c>
       <c r="K20" s="7"/>
-      <c r="L20" s="23"/>
-      <c r="M20" s="14"/>
-      <c r="N20" s="14"/>
-      <c r="O20" s="14"/>
-      <c r="P20" s="14"/>
-      <c r="Q20" s="22"/>
-      <c r="R20" s="22"/>
-      <c r="S20" s="22"/>
-      <c r="T20" s="22"/>
-      <c r="U20" s="23"/>
+      <c r="L20" s="14"/>
+      <c r="M20" s="18"/>
+      <c r="N20" s="18"/>
+      <c r="O20" s="18"/>
+      <c r="P20" s="18"/>
+      <c r="Q20" s="18"/>
+      <c r="R20" s="18"/>
+      <c r="S20" s="19"/>
+      <c r="T20" s="18"/>
+      <c r="U20" s="14"/>
       <c r="V20" s="11"/>
     </row>
     <row r="21" spans="1:22" x14ac:dyDescent="0.4">
@@ -2045,30 +1899,30 @@
         <v>25</v>
       </c>
       <c r="K21" s="7"/>
-      <c r="L21" s="23"/>
-      <c r="M21" s="14"/>
-      <c r="N21" s="14"/>
-      <c r="O21" s="14"/>
-      <c r="P21" s="14"/>
-      <c r="Q21" s="22"/>
-      <c r="R21" s="22"/>
-      <c r="S21" s="22"/>
-      <c r="T21" s="22"/>
-      <c r="U21" s="23"/>
+      <c r="L21" s="14"/>
+      <c r="M21" s="18"/>
+      <c r="N21" s="18"/>
+      <c r="O21" s="18"/>
+      <c r="P21" s="18"/>
+      <c r="Q21" s="19"/>
+      <c r="R21" s="18"/>
+      <c r="S21" s="18"/>
+      <c r="T21" s="18"/>
+      <c r="U21" s="14"/>
       <c r="V21" s="11"/>
     </row>
     <row r="22" spans="1:22" x14ac:dyDescent="0.4">
       <c r="K22" s="7"/>
-      <c r="L22" s="23"/>
-      <c r="M22" s="14"/>
-      <c r="N22" s="14"/>
-      <c r="O22" s="14"/>
-      <c r="P22" s="14"/>
-      <c r="Q22" s="22"/>
-      <c r="R22" s="22"/>
-      <c r="S22" s="22"/>
-      <c r="T22" s="22"/>
-      <c r="U22" s="23"/>
+      <c r="L22" s="14"/>
+      <c r="M22" s="18"/>
+      <c r="N22" s="18"/>
+      <c r="O22" s="18"/>
+      <c r="P22" s="18"/>
+      <c r="Q22" s="19"/>
+      <c r="R22" s="18"/>
+      <c r="S22" s="18"/>
+      <c r="T22" s="18"/>
+      <c r="U22" s="14"/>
       <c r="V22" s="11"/>
     </row>
     <row r="23" spans="1:22" x14ac:dyDescent="0.4">
@@ -2076,16 +1930,16 @@
         <v>26</v>
       </c>
       <c r="K23" s="7"/>
-      <c r="L23" s="23"/>
-      <c r="M23" s="23"/>
-      <c r="N23" s="23"/>
-      <c r="O23" s="23"/>
-      <c r="P23" s="23"/>
-      <c r="Q23" s="23"/>
-      <c r="R23" s="23"/>
-      <c r="S23" s="23"/>
-      <c r="T23" s="23"/>
-      <c r="U23" s="23"/>
+      <c r="L23" s="14"/>
+      <c r="M23" s="14"/>
+      <c r="N23" s="14"/>
+      <c r="O23" s="14"/>
+      <c r="P23" s="14"/>
+      <c r="Q23" s="14"/>
+      <c r="R23" s="14"/>
+      <c r="S23" s="14"/>
+      <c r="T23" s="14"/>
+      <c r="U23" s="14"/>
       <c r="V23" s="11"/>
     </row>
     <row r="24" spans="1:22" x14ac:dyDescent="0.4">
@@ -2093,16 +1947,16 @@
         <v>27</v>
       </c>
       <c r="K24" s="7"/>
-      <c r="L24" s="23"/>
-      <c r="M24" s="23"/>
-      <c r="N24" s="23"/>
-      <c r="O24" s="23"/>
-      <c r="P24" s="23"/>
-      <c r="Q24" s="23"/>
-      <c r="R24" s="23"/>
-      <c r="S24" s="23"/>
-      <c r="T24" s="23"/>
-      <c r="U24" s="23"/>
+      <c r="L24" s="14"/>
+      <c r="M24" s="14"/>
+      <c r="N24" s="14"/>
+      <c r="O24" s="14"/>
+      <c r="P24" s="14"/>
+      <c r="Q24" s="14"/>
+      <c r="R24" s="14"/>
+      <c r="S24" s="14"/>
+      <c r="T24" s="14"/>
+      <c r="U24" s="14"/>
       <c r="V24" s="11"/>
     </row>
     <row r="25" spans="1:22" ht="24.75" thickBot="1" x14ac:dyDescent="0.45">
@@ -2110,16 +1964,16 @@
         <v>28</v>
       </c>
       <c r="K25" s="8"/>
-      <c r="L25" s="24"/>
-      <c r="M25" s="24"/>
-      <c r="N25" s="24"/>
-      <c r="O25" s="24"/>
-      <c r="P25" s="24"/>
-      <c r="Q25" s="24"/>
-      <c r="R25" s="24"/>
-      <c r="S25" s="24"/>
-      <c r="T25" s="24"/>
-      <c r="U25" s="24"/>
+      <c r="L25" s="15"/>
+      <c r="M25" s="15"/>
+      <c r="N25" s="15"/>
+      <c r="O25" s="15"/>
+      <c r="P25" s="15"/>
+      <c r="Q25" s="15"/>
+      <c r="R25" s="15"/>
+      <c r="S25" s="15"/>
+      <c r="T25" s="15"/>
+      <c r="U25" s="15"/>
       <c r="V25" s="10"/>
     </row>
     <row r="26" spans="1:22" x14ac:dyDescent="0.4">
@@ -2160,8 +2014,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDB00524-DEAF-41CC-B5EF-0263154EC52F}">
   <dimension ref="A1:O29"/>
   <sheetViews>
-    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="R17" sqref="R17"/>
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="24" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -2232,7 +2086,7 @@
     <row r="5" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="4"/>
       <c r="C5" s="3" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G5" s="5"/>
     </row>
@@ -2255,13 +2109,13 @@
     </row>
     <row r="9" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C9" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E9" s="5"/>
     </row>
     <row r="10" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C10" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E10" s="5"/>
     </row>
